--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3873</v>
+        <v>3796</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15236</v>
+        <v>15096</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01158306509042361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005589218372029858</v>
+        <v>0.005477158821410179</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02198543525247625</v>
+        <v>0.02178326728664567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>20266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12913</v>
+        <v>12879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31626</v>
+        <v>30275</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02944182129056709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01875894045533551</v>
+        <v>0.01870996513936477</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04594396310042116</v>
+        <v>0.04398164027836149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -786,19 +786,19 @@
         <v>28293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19983</v>
+        <v>19103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39286</v>
+        <v>39371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02048243008406732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0144662908115456</v>
+        <v>0.01382892447056513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02844012739844697</v>
+        <v>0.02850166759591197</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>684967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677758</v>
+        <v>677898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689121</v>
+        <v>689198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9884169349095764</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9780145647475237</v>
+        <v>0.9782167327133543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9944107816279703</v>
+        <v>0.9945228411785898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>675</v>
@@ -836,19 +836,19 @@
         <v>668085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>656725</v>
+        <v>658076</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675438</v>
+        <v>675472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.970558178709433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9540560368995786</v>
+        <v>0.9560183597216385</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812410595446645</v>
+        <v>0.9812900348606353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1349</v>
@@ -857,19 +857,19 @@
         <v>1353052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1342059</v>
+        <v>1341974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1361362</v>
+        <v>1362242</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9795175699159326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9715598726015533</v>
+        <v>0.9714983324040881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9855337091884544</v>
+        <v>0.9861710755294349</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>30431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21516</v>
+        <v>20798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44861</v>
+        <v>44566</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03163915315750906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0223705716449329</v>
+        <v>0.02162373034383474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04664223637775729</v>
+        <v>0.0463361148824644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>29907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19381</v>
+        <v>20899</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41960</v>
+        <v>44654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03088265529505992</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02001343934857268</v>
+        <v>0.02158147124899279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04332905082884072</v>
+        <v>0.04611157772932696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>60337</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46180</v>
+        <v>47013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78142</v>
+        <v>78469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0312596122232975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02392531369221154</v>
+        <v>0.02435685262268654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04048389866483271</v>
+        <v>0.04065348939754789</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>931369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>916939</v>
+        <v>917234</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>940284</v>
+        <v>941002</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9683608468424909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9533577636222428</v>
+        <v>0.9536638851175357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776294283550671</v>
+        <v>0.9783762696561653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -1053,19 +1053,19 @@
         <v>938486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>926433</v>
+        <v>923739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>949012</v>
+        <v>947494</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.96911734470494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9566709491711594</v>
+        <v>0.9538884222706731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9799865606514273</v>
+        <v>0.9784185287510072</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1747</v>
@@ -1074,19 +1074,19 @@
         <v>1869856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1852051</v>
+        <v>1851724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1884013</v>
+        <v>1883180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9687403877767025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9595161013351673</v>
+        <v>0.9593465106024521</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9760746863077884</v>
+        <v>0.9756431473773133</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16966</v>
+        <v>16487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36686</v>
+        <v>36088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03667679188249268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02500468780839052</v>
+        <v>0.02429883516526697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05406913135692375</v>
+        <v>0.05318698055918768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1199,19 +1199,19 @@
         <v>31237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22351</v>
+        <v>21085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42717</v>
+        <v>42594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04567813064560806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0326847876222897</v>
+        <v>0.03083299999461474</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.062465869581284</v>
+        <v>0.06228712767173269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>56122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43915</v>
+        <v>43065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72390</v>
+        <v>71497</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04119507649907228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03223510026710395</v>
+        <v>0.03161068318597803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05313607613543541</v>
+        <v>0.05248086323377416</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>653623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641823</v>
+        <v>642421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>661543</v>
+        <v>662022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9633232081175073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459308686430761</v>
+        <v>0.9468130194408126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9749953121916094</v>
+        <v>0.9757011648347332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -1270,19 +1270,19 @@
         <v>652604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641124</v>
+        <v>641247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>661490</v>
+        <v>662756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9543218693543919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9375341304187158</v>
+        <v>0.9377128723282671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9673152123777102</v>
+        <v>0.9691670000053851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1279</v>
@@ -1291,19 +1291,19 @@
         <v>1306228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1289960</v>
+        <v>1290853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1318435</v>
+        <v>1319285</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9588049235009277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9468639238645645</v>
+        <v>0.947519136766226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9677648997328959</v>
+        <v>0.968389316814022</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>23252</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14938</v>
+        <v>15510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34633</v>
+        <v>34710</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02467810662462316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01585385916220687</v>
+        <v>0.01646090798774517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03675642689540919</v>
+        <v>0.0368385676335232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1416,19 +1416,19 @@
         <v>40062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28723</v>
+        <v>29519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53522</v>
+        <v>53541</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03857302106523517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02765503552724669</v>
+        <v>0.02842133133542613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05153270341694699</v>
+        <v>0.0515501510271883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1437,19 +1437,19 @@
         <v>63315</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50515</v>
+        <v>49269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82056</v>
+        <v>80111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03196363594916265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02550198407232878</v>
+        <v>0.0248726127988328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0414251436412798</v>
+        <v>0.0404429767517061</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>918970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907589</v>
+        <v>907512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>927284</v>
+        <v>926712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9753218933753768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.963243573104591</v>
+        <v>0.9631614323664768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9841461408377932</v>
+        <v>0.9835390920122546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>957</v>
@@ -1487,19 +1487,19 @@
         <v>998550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>985090</v>
+        <v>985071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1009889</v>
+        <v>1009093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9614269789347648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9484672965830533</v>
+        <v>0.9484498489728116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9723449644727533</v>
+        <v>0.9715786686645739</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1928</v>
@@ -1508,19 +1508,19 @@
         <v>1917519</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1898778</v>
+        <v>1900723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1930319</v>
+        <v>1931565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9680363640508374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9585748563587201</v>
+        <v>0.9595570232482936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9744980159276712</v>
+        <v>0.9751273872011672</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>86595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02643708143675029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -1633,19 +1633,19 @@
         <v>121472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03594695301296968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -1654,19 +1654,19 @@
         <v>208067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03126609310876499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3188930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3166300</v>
+        <v>3167982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3205445</v>
+        <v>3204801</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9735629185632497</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9666543102900772</v>
+        <v>0.96716780516695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9786049303045883</v>
+        <v>0.9784083282664747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3175</v>
@@ -1704,19 +1704,19 @@
         <v>3257725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3236024</v>
+        <v>3234919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3277629</v>
+        <v>3279220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9640530469870303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9576310378981254</v>
+        <v>0.9573041322056717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.969943142025749</v>
+        <v>0.9704138853566143</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6303</v>
@@ -1725,19 +1725,19 @@
         <v>6446655</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6420425</v>
+        <v>6415753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6473518</v>
+        <v>6475711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9687339068912351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9647923969735738</v>
+        <v>0.9640903357783478</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9727706158603814</v>
+        <v>0.9731002261389261</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>31717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22159</v>
+        <v>21887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46815</v>
+        <v>46486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04547851007944691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0317733965554898</v>
+        <v>0.03138361766539867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06712723767100411</v>
+        <v>0.06665582204072255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2090,19 +2090,19 @@
         <v>32385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22823</v>
+        <v>21399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46952</v>
+        <v>45152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04664505934318158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03287202670910686</v>
+        <v>0.03082199013234479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06762657149363238</v>
+        <v>0.06503400403612761</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2111,19 +2111,19 @@
         <v>64102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49734</v>
+        <v>48434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82789</v>
+        <v>82079</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04606048019744285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03573638520762551</v>
+        <v>0.03480200514275281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05948815845558631</v>
+        <v>0.05897791755464737</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>665683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>650585</v>
+        <v>650914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675241</v>
+        <v>675513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9545214899205531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9328727623289959</v>
+        <v>0.9333441779592774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9682266034445102</v>
+        <v>0.9686163823346012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>619</v>
@@ -2161,19 +2161,19 @@
         <v>661903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>647336</v>
+        <v>649136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671465</v>
+        <v>672889</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9533549406568184</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9323734285063673</v>
+        <v>0.9349659959638722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9671279732908931</v>
+        <v>0.9691780098676552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1261</v>
@@ -2182,19 +2182,19 @@
         <v>1327586</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1308899</v>
+        <v>1309609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1341954</v>
+        <v>1343254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9539395198025572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.940511841544413</v>
+        <v>0.9410220824453525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9642636147923743</v>
+        <v>0.9651979948572471</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>39123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27671</v>
+        <v>26528</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53321</v>
+        <v>53939</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03843331437732582</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02718331236535536</v>
+        <v>0.02606010348610574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05238065773037519</v>
+        <v>0.0529877610950089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -2307,19 +2307,19 @@
         <v>54026</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41333</v>
+        <v>38305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72010</v>
+        <v>69371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0525657498553466</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04021614291674639</v>
+        <v>0.03726957728627139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07006361591917167</v>
+        <v>0.06749627496842836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -2328,19 +2328,19 @@
         <v>93149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75621</v>
+        <v>74804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114756</v>
+        <v>118358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04553348033884875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03696559856951763</v>
+        <v>0.0365662078341078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05609555252079147</v>
+        <v>0.05785641642398863</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>978824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>964626</v>
+        <v>964008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>990276</v>
+        <v>991419</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9615666856226742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9476193422696247</v>
+        <v>0.9470122389049911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9728166876346447</v>
+        <v>0.9739398965138942</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>888</v>
@@ -2378,19 +2378,19 @@
         <v>973749</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>955765</v>
+        <v>958404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>986442</v>
+        <v>989470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9474342501446534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9299363840808287</v>
+        <v>0.9325037250315718</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9597838570832538</v>
+        <v>0.9627304227137287</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1789</v>
@@ -2399,19 +2399,19 @@
         <v>1952574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1930967</v>
+        <v>1927365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1970102</v>
+        <v>1970919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9544665196611513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9439044474792088</v>
+        <v>0.9421435835760114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9630344014304825</v>
+        <v>0.9634337921658922</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>27491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17768</v>
+        <v>18587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38073</v>
+        <v>41103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03633748869701024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0234858564016368</v>
+        <v>0.02456790963327418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05032571436134222</v>
+        <v>0.05433092942518299</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2524,19 +2524,19 @@
         <v>37945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27328</v>
+        <v>26900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51791</v>
+        <v>52222</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04887986195253197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03520360593865494</v>
+        <v>0.03465259340277269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06671666139647696</v>
+        <v>0.06727248315959514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -2545,19 +2545,19 @@
         <v>65435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49925</v>
+        <v>50157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82144</v>
+        <v>82089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04268945981764544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03257095210994574</v>
+        <v>0.03272216180857232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05358990130498461</v>
+        <v>0.05355407760560556</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>729047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>718465</v>
+        <v>715435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>738770</v>
+        <v>737951</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9636625113029897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9496742856386577</v>
+        <v>0.9456690705748168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9765141435983633</v>
+        <v>0.9754320903667257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>669</v>
@@ -2595,19 +2595,19 @@
         <v>738338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>724492</v>
+        <v>724061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>748955</v>
+        <v>749383</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.951120138047468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9332833386035231</v>
+        <v>0.9327275168404049</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9647963940613451</v>
+        <v>0.9653474065972274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1331</v>
@@ -2616,19 +2616,19 @@
         <v>1467386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1450677</v>
+        <v>1450732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1482896</v>
+        <v>1482664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9573105401823545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.946410098695015</v>
+        <v>0.9464459223943945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.967429047890054</v>
+        <v>0.967277838191428</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>41933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28561</v>
+        <v>29090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58123</v>
+        <v>58893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04442335387248669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03025755899088487</v>
+        <v>0.03081791899519429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06157469791020345</v>
+        <v>0.06239058767883508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -2741,19 +2741,19 @@
         <v>65740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51649</v>
+        <v>52058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83484</v>
+        <v>84357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06268303138491191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04924719977670312</v>
+        <v>0.04963770213300239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07960268491494212</v>
+        <v>0.08043521265525505</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -2762,19 +2762,19 @@
         <v>107673</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89160</v>
+        <v>90065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131941</v>
+        <v>133018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05403345732693974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04474324170103214</v>
+        <v>0.04519722222399401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06621208959529665</v>
+        <v>0.06675237688700621</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>902006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885816</v>
+        <v>885046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>915378</v>
+        <v>914849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9555766461275133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9384253020897965</v>
+        <v>0.9376094123211649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9697424410091152</v>
+        <v>0.9691820810048057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>938</v>
@@ -2812,19 +2812,19 @@
         <v>983023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>965279</v>
+        <v>964406</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>997114</v>
+        <v>996705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373169686150881</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9203973150850578</v>
+        <v>0.9195647873447451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9507528002232968</v>
+        <v>0.9503622978669979</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1810</v>
@@ -2833,19 +2833,19 @@
         <v>1885030</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1860762</v>
+        <v>1859685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903543</v>
+        <v>1902638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9459665426730602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9337879104047033</v>
+        <v>0.9332476231129939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9552567582989679</v>
+        <v>0.9548027777760061</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>140263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0410628357868955</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>174</v>
@@ -2958,19 +2958,19 @@
         <v>190095</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05359156431791369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -2979,19 +2979,19 @@
         <v>330359</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04744531372876407</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3275562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3247321</v>
+        <v>3247087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3298017</v>
+        <v>3299165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9589371642131045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9506694986069897</v>
+        <v>0.9506010798639364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9655111740719172</v>
+        <v>0.9658471992828709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3114</v>
@@ -3029,19 +3029,19 @@
         <v>3357015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3325487</v>
+        <v>3322594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3384622</v>
+        <v>3380495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9464084356820863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9375201190612346</v>
+        <v>0.9367046560519385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9541915396792495</v>
+        <v>0.9530278855379617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6191</v>
@@ -3050,19 +3050,19 @@
         <v>6632575</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6595757</v>
+        <v>6594562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6668233</v>
+        <v>6669062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.952554686271236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9472669678664478</v>
+        <v>0.9470953392081962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9576757755346426</v>
+        <v>0.9577948682373975</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>24874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16589</v>
+        <v>15749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36234</v>
+        <v>36448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.036860934237021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02458418069701541</v>
+        <v>0.02333874343284573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05369572425481224</v>
+        <v>0.05401334843731995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -3415,19 +3415,19 @@
         <v>31802</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20913</v>
+        <v>22006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43357</v>
+        <v>43728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04726506771785408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03108183721663959</v>
+        <v>0.03270622780285989</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06443822827743263</v>
+        <v>0.06499014098229655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -3436,19 +3436,19 @@
         <v>56676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42719</v>
+        <v>43094</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73032</v>
+        <v>72735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04205543124768938</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03169949507906639</v>
+        <v>0.03197751712584746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05419284568866155</v>
+        <v>0.05397184613621135</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>649926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>638566</v>
+        <v>638352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658211</v>
+        <v>659051</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.963139065762979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9463042757451877</v>
+        <v>0.94598665156268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9754158193029845</v>
+        <v>0.9766612565671544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>635</v>
@@ -3486,19 +3486,19 @@
         <v>641037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>629482</v>
+        <v>629111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>651926</v>
+        <v>650833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9527349322821459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9355617717225674</v>
+        <v>0.9350098590177034</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9689181627833604</v>
+        <v>0.9672937721971401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1262</v>
@@ -3507,19 +3507,19 @@
         <v>1290963</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1274607</v>
+        <v>1274904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1304920</v>
+        <v>1304545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9579445687523106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9458071543113385</v>
+        <v>0.9460281538637887</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9683005049209337</v>
+        <v>0.9680224828741526</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>29091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19425</v>
+        <v>19730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41542</v>
+        <v>41700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02845299182947086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01899902117017787</v>
+        <v>0.01929720829391365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04063106693428616</v>
+        <v>0.04078471499940133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>35540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23383</v>
+        <v>24043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50883</v>
+        <v>49351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03407749715514289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02242066965115693</v>
+        <v>0.02305417396700171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04878888182630357</v>
+        <v>0.04732071834400493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3653,19 +3653,19 @@
         <v>64631</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49397</v>
+        <v>50600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84142</v>
+        <v>84099</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03129313359351032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02391691533545659</v>
+        <v>0.02449944186108913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04074003395543529</v>
+        <v>0.04071894361200092</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>993340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980889</v>
+        <v>980731</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1003006</v>
+        <v>1002701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9715470081705292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9593689330657139</v>
+        <v>0.9592152850005989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810009788298222</v>
+        <v>0.9807027917060867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -3703,19 +3703,19 @@
         <v>1007373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>992030</v>
+        <v>993562</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019530</v>
+        <v>1018870</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9659225028448571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9512111181736964</v>
+        <v>0.952679281655995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9775793303488437</v>
+        <v>0.9769458260329983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1872</v>
@@ -3724,19 +3724,19 @@
         <v>2000713</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1981202</v>
+        <v>1981245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2015947</v>
+        <v>2014744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9687068664064897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9592599660445644</v>
+        <v>0.9592810563879987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9760830846645434</v>
+        <v>0.9755005581389107</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>22003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13822</v>
+        <v>13765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34991</v>
+        <v>35853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02896797927418479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01819770631275205</v>
+        <v>0.01812271652745001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0460679075394004</v>
+        <v>0.0472030960568452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3849,19 +3849,19 @@
         <v>31402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21497</v>
+        <v>21501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44139</v>
+        <v>43835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04000164295006896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02738453928926784</v>
+        <v>0.02738990649793779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05622733237715733</v>
+        <v>0.0558398499228386</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3870,19 +3870,19 @@
         <v>53404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40696</v>
+        <v>41235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71425</v>
+        <v>71651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03457574361372401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02634760853404338</v>
+        <v>0.02669686217613709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04624277982181905</v>
+        <v>0.04638940383715121</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>737549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>724561</v>
+        <v>723699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745730</v>
+        <v>745787</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9710320207258152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9539320924605996</v>
+        <v>0.9527969039431547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9818022936872479</v>
+        <v>0.98187728347255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>709</v>
@@ -3920,19 +3920,19 @@
         <v>753609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740872</v>
+        <v>741176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763514</v>
+        <v>763510</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9599983570499311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9437726676228425</v>
+        <v>0.944160150077161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.972615460710732</v>
+        <v>0.9726100935020622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1386</v>
@@ -3941,19 +3941,19 @@
         <v>1491159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1473138</v>
+        <v>1472912</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1503867</v>
+        <v>1503328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9654242563862759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9537572201781798</v>
+        <v>0.9536105961628476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9736523914659555</v>
+        <v>0.9733031378238628</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>23802</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15543</v>
+        <v>14979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34695</v>
+        <v>35759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02538687278996558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01657824662141715</v>
+        <v>0.01597682832918201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03700539156867515</v>
+        <v>0.03813968523318879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -4066,19 +4066,19 @@
         <v>44994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32241</v>
+        <v>32505</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62789</v>
+        <v>60407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04310681402053507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0308889734721077</v>
+        <v>0.03114140356335978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06015547958999756</v>
+        <v>0.05787340364584113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -4087,19 +4087,19 @@
         <v>68796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52525</v>
+        <v>52635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87262</v>
+        <v>86933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03472179089720982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02650986166879516</v>
+        <v>0.02656516613572277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04404196305728836</v>
+        <v>0.04387552604511202</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>913765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902872</v>
+        <v>901808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922024</v>
+        <v>922588</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9746131272100345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629946084313248</v>
+        <v>0.9618603147668111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834217533785828</v>
+        <v>0.984023171670818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>922</v>
@@ -4137,19 +4137,19 @@
         <v>998785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>980990</v>
+        <v>983372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1011538</v>
+        <v>1011274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9568931859794649</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9398445204100017</v>
+        <v>0.9421265963541587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9691110265278923</v>
+        <v>0.96885859643664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1831</v>
@@ -4158,19 +4158,19 @@
         <v>1912550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1894084</v>
+        <v>1894413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1928821</v>
+        <v>1928711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9652782091027902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9559580369427118</v>
+        <v>0.9561244739548882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9734901383312049</v>
+        <v>0.9734348338642773</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>99770</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02939283219585396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>125</v>
@@ -4283,19 +4283,19 @@
         <v>143737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04055174480053273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>218</v>
@@ -4304,19 +4304,19 @@
         <v>243507</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03509305529201308</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3294580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3272254</v>
+        <v>3272664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3313009</v>
+        <v>3312063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.970607167804146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.964029537940753</v>
+        <v>0.9641502939265393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9760363863258623</v>
+        <v>0.9757575148605693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3213</v>
@@ -4354,19 +4354,19 @@
         <v>3400805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3377540</v>
+        <v>3374460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3427835</v>
+        <v>3423904</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9594482551994673</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9528847043402056</v>
+        <v>0.952015849491442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9670741907670424</v>
+        <v>0.9659652026214419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6351</v>
@@ -4375,19 +4375,19 @@
         <v>6695385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6663308</v>
+        <v>6659320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6726924</v>
+        <v>6725532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9649069447079869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.960284170704589</v>
+        <v>0.9597094210521311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9694521140891096</v>
+        <v>0.9692515131849975</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>60944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48451</v>
+        <v>47712</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77821</v>
+        <v>76130</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08823406726060938</v>
+        <v>0.08823406726060939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07014655618167458</v>
+        <v>0.06907725855089439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1126688301426276</v>
+        <v>0.1102194655154738</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -4740,19 +4740,19 @@
         <v>89295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78144</v>
+        <v>78774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101585</v>
+        <v>103404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1218021358626477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1065920548422898</v>
+        <v>0.1074513899845607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1385672108276046</v>
+        <v>0.141048280519316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -4761,19 +4761,19 @@
         <v>150239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132931</v>
+        <v>133068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169133</v>
+        <v>171103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1055179557990087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09336207179276571</v>
+        <v>0.09345792067933391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1187881186944177</v>
+        <v>0.1201711976213658</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>629766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>612889</v>
+        <v>614580</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>642259</v>
+        <v>642998</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9117659327393907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8873311698573724</v>
+        <v>0.8897805344845261</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9298534438183252</v>
+        <v>0.9309227414491057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1031</v>
@@ -4811,19 +4811,19 @@
         <v>643818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>631528</v>
+        <v>629709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>654969</v>
+        <v>654339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8781978641373523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.861432789172395</v>
+        <v>0.8589517194806839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8934079451577102</v>
+        <v>0.8925486100154394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1672</v>
@@ -4832,19 +4832,19 @@
         <v>1273584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1254690</v>
+        <v>1252720</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1290892</v>
+        <v>1290755</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8944820442009914</v>
+        <v>0.8944820442009913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8812118813055824</v>
+        <v>0.8798288023786343</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9066379282072342</v>
+        <v>0.906542079320666</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>53330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41971</v>
+        <v>42856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67191</v>
+        <v>68831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05084284949770978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04001326389783273</v>
+        <v>0.04085783095901065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06405745931274379</v>
+        <v>0.06562148428509233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -4957,19 +4957,19 @@
         <v>92908</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80242</v>
+        <v>78877</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106851</v>
+        <v>109315</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08676187637805034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07493363579213048</v>
+        <v>0.07365932817806596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09978299001238373</v>
+        <v>0.1020838430389229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -4978,19 +4978,19 @@
         <v>146238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126919</v>
+        <v>127504</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166215</v>
+        <v>162688</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06898808650055524</v>
+        <v>0.06898808650055525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05987432781449927</v>
+        <v>0.06015027423944872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07841238823543535</v>
+        <v>0.07674864304135233</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>995587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981726</v>
+        <v>980086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1006946</v>
+        <v>1006061</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9491571505022903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9359425406872561</v>
+        <v>0.9343785157149079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9599867361021673</v>
+        <v>0.9591421690409897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1341</v>
@@ -5028,19 +5028,19 @@
         <v>977930</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963987</v>
+        <v>961523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>990596</v>
+        <v>991961</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9132381236219497</v>
+        <v>0.9132381236219496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9002170099876161</v>
+        <v>0.8979161569610769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9250663642078694</v>
+        <v>0.9263406718219339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2230</v>
@@ -5049,19 +5049,19 @@
         <v>1973517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1953540</v>
+        <v>1957067</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1992836</v>
+        <v>1992251</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9310119134994448</v>
+        <v>0.9310119134994449</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9215876117645647</v>
+        <v>0.9232513569586472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9401256721855009</v>
+        <v>0.9398497257605509</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>39199</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29021</v>
+        <v>28004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52713</v>
+        <v>51235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04887097101688093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03618172854099092</v>
+        <v>0.03491352263239562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06572033501947459</v>
+        <v>0.06387719081410619</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -5174,19 +5174,19 @@
         <v>43483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34745</v>
+        <v>33340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55446</v>
+        <v>54769</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05357235602491128</v>
+        <v>0.05357235602491127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04280676394087978</v>
+        <v>0.04107586264059169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06831115374130553</v>
+        <v>0.06747808303240886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -5195,19 +5195,19 @@
         <v>82681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67818</v>
+        <v>67924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101601</v>
+        <v>100031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05123561410238203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04202487917137959</v>
+        <v>0.04209092327970501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06295964410385217</v>
+        <v>0.06198690210998863</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>762887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>749373</v>
+        <v>750851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>773065</v>
+        <v>774082</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9511290289831191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9342796649805255</v>
+        <v>0.9361228091858934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9638182714590091</v>
+        <v>0.965086477367604</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>980</v>
@@ -5245,19 +5245,19 @@
         <v>768180</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756217</v>
+        <v>756894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776918</v>
+        <v>778323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9464276439750887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9316888462586943</v>
+        <v>0.9325219169675906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9571932360591201</v>
+        <v>0.9589241373594083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1612</v>
@@ -5266,19 +5266,19 @@
         <v>1531067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1512147</v>
+        <v>1513717</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1545930</v>
+        <v>1545824</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9487643858976177</v>
+        <v>0.948764385897618</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.937040355896148</v>
+        <v>0.9380130978900113</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9579751208286205</v>
+        <v>0.9579090767202951</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>66901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54175</v>
+        <v>52641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82363</v>
+        <v>84959</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06757222032475924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05471852589227146</v>
+        <v>0.05316899258221558</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08318973065251348</v>
+        <v>0.08581202257721562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>148</v>
@@ -5391,19 +5391,19 @@
         <v>87034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74609</v>
+        <v>74703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102115</v>
+        <v>103906</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07791561953931479</v>
+        <v>0.07791561953931478</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0667922569701751</v>
+        <v>0.06687652902761042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09141666279502657</v>
+        <v>0.09301960423536419</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>234</v>
@@ -5412,19 +5412,19 @@
         <v>153935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133082</v>
+        <v>134940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174700</v>
+        <v>174805</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07305555436981397</v>
+        <v>0.07305555436981398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06315903845025397</v>
+        <v>0.06404096090734758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08291066292924613</v>
+        <v>0.08296032860797166</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>923161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907699</v>
+        <v>905103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>935887</v>
+        <v>937421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9324277796752408</v>
+        <v>0.9324277796752407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9168102693474866</v>
+        <v>0.9141879774227845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9452814741077286</v>
+        <v>0.9468310074177844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1411</v>
@@ -5462,19 +5462,19 @@
         <v>1029997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1014916</v>
+        <v>1013125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1042422</v>
+        <v>1042328</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9220843804606852</v>
+        <v>0.9220843804606851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9085833372049735</v>
+        <v>0.9069803957646358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9332077430298249</v>
+        <v>0.9331234709723895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2331</v>
@@ -5483,19 +5483,19 @@
         <v>1953158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1932393</v>
+        <v>1932288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1974011</v>
+        <v>1972153</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9269444456301861</v>
+        <v>0.9269444456301862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170893370707538</v>
+        <v>0.917039671392028</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9368409615497454</v>
+        <v>0.9359590390926522</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>220373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06239737427436211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>597</v>
@@ -5608,19 +5608,19 @@
         <v>312720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>890</v>
@@ -5629,19 +5629,19 @@
         <v>533093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0733841125412646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3311402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3282939</v>
+        <v>3283155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3335274</v>
+        <v>3335408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9376026257256379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9295436823377178</v>
+        <v>0.9296048562367957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9443618746380186</v>
+        <v>0.9443997998125182</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4763</v>
@@ -5679,19 +5679,19 @@
         <v>3419925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3394365</v>
+        <v>3393477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3445868</v>
+        <v>3444291</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9162203939365912</v>
+        <v>0.9162203939365913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9093725637726342</v>
+        <v>0.9091345518629047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9231706819811692</v>
+        <v>0.9227480619270243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7845</v>
@@ -5700,19 +5700,19 @@
         <v>6731326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6695734</v>
+        <v>6695886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6767533</v>
+        <v>6770222</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9266158874587354</v>
+        <v>0.9266158874587355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9217163416253229</v>
+        <v>0.9217373732936794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9316000130341179</v>
+        <v>0.931970225692981</v>
       </c>
     </row>
     <row r="18">
